--- a/STLC Sheet/STLC Sheet - TODOIST - Epic - Main.xlsx
+++ b/STLC Sheet/STLC Sheet - TODOIST - Epic - Main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DOC VERSION CONTROL" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="119">
   <si>
     <t>Pass/Fail</t>
   </si>
@@ -412,6 +412,24 @@
   </si>
   <si>
     <t>El sistema devuelve un Response Status Code:204 consderando que el Proyecto fue Eliminado.</t>
+  </si>
+  <si>
+    <t>[Main]-TOD-30-TC06</t>
+  </si>
+  <si>
+    <t>[Main]-TOD-29-TC05</t>
+  </si>
+  <si>
+    <t>[Main]-TOD-27-TC03</t>
+  </si>
+  <si>
+    <t>[Main]-TOD-26-TC02</t>
+  </si>
+  <si>
+    <t>[Main]-TOD-25-TC01</t>
+  </si>
+  <si>
+    <t>[Main]-TOD-28-TC04</t>
   </si>
 </sst>
 </file>
@@ -1163,306 +1181,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1546,8 +1264,308 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2230,246 +2248,223 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" thickBot="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="39"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="44" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="54" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55" t="s">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="58"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="59"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45" t="s">
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="58"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="58"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A16:B20"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A10:B15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -2486,6 +2481,29 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A10:B15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A16:B20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2508,16 +2526,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -2532,16 +2550,16 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
@@ -2550,13 +2568,13 @@
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="15" t="s">
         <v>55</v>
       </c>
@@ -2568,13 +2586,13 @@
       <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="17" t="s">
         <v>68</v>
       </c>
@@ -2586,13 +2604,13 @@
       <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="17" t="s">
         <v>68</v>
       </c>
@@ -2604,13 +2622,13 @@
       <c r="B7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
       <c r="H7" s="17" t="s">
         <v>68</v>
       </c>
@@ -2622,13 +2640,13 @@
       <c r="B8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="17" t="s">
         <v>68</v>
       </c>
@@ -2640,13 +2658,13 @@
       <c r="B9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="17" t="s">
         <v>68</v>
       </c>
@@ -2658,13 +2676,13 @@
       <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="17" t="s">
         <v>68</v>
       </c>
@@ -2672,305 +2690,328 @@
     <row r="11" spans="1:8">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="17"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
       <c r="H40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="A1:H1"/>
@@ -2987,29 +3028,6 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,8 +3040,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -3038,58 +3056,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="8" t="s">
@@ -3136,534 +3154,534 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="75" t="s">
+      <c r="D5" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="79" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="85" t="s">
+      <c r="K5" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N5" s="104" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" ht="78" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
     </row>
     <row r="9" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="79" t="s">
+      <c r="G9" s="113"/>
+      <c r="H9" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="88" t="s">
+      <c r="L9" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="75"/>
+      <c r="N9" s="104"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" hidden="1" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
     </row>
     <row r="12" spans="1:14" ht="199.5" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="79" t="s">
+      <c r="G13" s="113"/>
+      <c r="H13" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="85" t="s">
+      <c r="K13" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="88" t="s">
+      <c r="L13" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="75"/>
+      <c r="N13" s="104"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
     </row>
     <row r="16" spans="1:14" ht="187.5" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="79" t="s">
+      <c r="G17" s="113"/>
+      <c r="H17" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="J17" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="75"/>
+      <c r="N17" s="104"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
     </row>
     <row r="20" spans="1:14" ht="78.75" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="79" t="s">
+      <c r="G21" s="113"/>
+      <c r="H21" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="75" t="s">
+      <c r="I21" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="85" t="s">
+      <c r="K21" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="88" t="s">
+      <c r="L21" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="75"/>
+      <c r="N21" s="104"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
     </row>
     <row r="23" spans="1:14" ht="12.75">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
     </row>
     <row r="24" spans="1:14" ht="109.5" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="75" t="s">
+      <c r="D25" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="F25" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="76"/>
-      <c r="H25" s="79" t="s">
+      <c r="G25" s="113"/>
+      <c r="H25" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="K25" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="88" t="s">
+      <c r="L25" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="75"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
     </row>
     <row r="28" spans="1:14" ht="84.75" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="I30" s="19"/>
@@ -3671,11 +3689,72 @@
     <row r="31" spans="1:14" ht="31.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
     <mergeCell ref="K21:K24"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="M21:M24"/>
@@ -3692,72 +3771,11 @@
     <mergeCell ref="F21:F24"/>
     <mergeCell ref="G21:G24"/>
     <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3771,7 +3789,7 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="I5" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:N10"/>
     </sheetView>
   </sheetViews>
@@ -3790,58 +3808,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -4008,53 +4026,53 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="130.5" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="137" t="s">
+      <c r="F8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="136" t="s">
+      <c r="H8" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="138" t="s">
+      <c r="I8" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="139" t="s">
+      <c r="L8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="140">
+      <c r="M8" s="40">
         <v>45229</v>
       </c>
-      <c r="N8" s="129"/>
-    </row>
-    <row r="9" spans="1:14" s="131" customFormat="1" ht="144" customHeight="1">
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" s="31" customFormat="1" ht="144" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="41" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -4072,105 +4090,105 @@
       <c r="H9" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="I9" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143" t="s">
+      <c r="J9" s="43"/>
+      <c r="K9" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="143" t="s">
+      <c r="L9" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="144">
+      <c r="M9" s="44">
         <v>45229</v>
       </c>
-      <c r="N9" s="129"/>
-    </row>
-    <row r="10" spans="1:14" s="131" customFormat="1" ht="143.25" customHeight="1">
-      <c r="A10" s="146" t="s">
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" s="31" customFormat="1" ht="143.25" customHeight="1">
+      <c r="A10" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="149" t="s">
+      <c r="F10" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="148" t="s">
+      <c r="H10" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="150" t="s">
+      <c r="I10" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="151" t="s">
+      <c r="L10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="152">
+      <c r="M10" s="52">
         <v>45229</v>
       </c>
-      <c r="N10" s="145"/>
-    </row>
-    <row r="11" spans="1:14" s="131" customFormat="1">
-      <c r="A11" s="130"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="130"/>
-    </row>
-    <row r="12" spans="1:14" s="131" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="130"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="130"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="1:14" s="31" customFormat="1">
+      <c r="A11" s="30"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" s="31" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="131"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4363,70 +4381,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
     </row>
     <row r="2" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="116" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="11" t="s">
@@ -4467,91 +4485,104 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
@@ -4568,19 +4599,6 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4605,304 +4623,325 @@
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="7" spans="1:6" ht="21" thickBot="1">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="150"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="153"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="128"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="156"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="155" t="s">
+      <c r="A12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="156"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="156"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="157"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="153"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="153"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="153"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="154"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="153"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="153"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="153"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="154"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="153"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="153"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="153"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="153"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="153"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="153"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
@@ -4915,27 +4954,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
